--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05E8C7-3021-40D8-AC08-EBB1475BE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF64A6-12B6-481F-A2F6-6DBDC7BE8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="10485" windowHeight="10860" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" activeTab="1" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -248,6 +248,50 @@
     <rPh sb="0" eb="3">
       <t>チュウモンビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品画像URL</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFlare R2にアップロードされたURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -716,7 +760,7 @@
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -844,6 +888,50 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,10 +940,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -864,7 +1232,7 @@
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -934,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -955,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -976,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -994,39 +1362,37 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1034,176 +1400,9 @@
         <v>12</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF64A6-12B6-481F-A2F6-6DBDC7BE8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F7364-40E5-4B73-9F1F-87240436F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" activeTab="1" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="2" activeTab="3" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="customers" sheetId="2" r:id="rId1"/>
-    <sheet name="products" sheetId="4" r:id="rId2"/>
-    <sheet name="orders" sheetId="5" r:id="rId3"/>
+    <sheet name="companies" sheetId="7" r:id="rId1"/>
+    <sheet name="customers" sheetId="2" r:id="rId2"/>
+    <sheet name="products" sheetId="4" r:id="rId3"/>
+    <sheet name="orders" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -292,6 +293,31 @@
   </si>
   <si>
     <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業名</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
-  <dimension ref="B1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEC3974-F31E-4694-BD58-B5327A28D609}">
+  <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -814,9 +840,7 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
@@ -833,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -872,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -893,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>46</v>
@@ -908,29 +932,6 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -939,11 +940,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
+  <dimension ref="B1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1006,9 +1220,7 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1022,20 +1234,24 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -1043,10 +1259,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1064,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1085,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1098,9 +1314,7 @@
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -1108,20 +1322,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -1129,13 +1345,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1150,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1164,22 +1380,20 @@
         <v>12</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1187,17 +1401,19 @@
         <v>12</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>46</v>
@@ -1208,22 +1424,42 @@
         <v>12</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1286,9 +1522,7 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1302,20 +1536,24 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -1323,16 +1561,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1344,16 +1584,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1362,16 +1604,16 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1383,13 +1625,13 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -1400,9 +1642,28 @@
         <v>12</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F7364-40E5-4B73-9F1F-87240436F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162E8C2-CC4B-4671-956F-358E940E3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="2" activeTab="3" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="2" activeTab="2" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="7" r:id="rId1"/>
     <sheet name="customers" sheetId="2" r:id="rId2"/>
     <sheet name="products" sheetId="4" r:id="rId3"/>
-    <sheet name="orders" sheetId="5" r:id="rId4"/>
+    <sheet name="categories" sheetId="8" r:id="rId4"/>
+    <sheet name="orders" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -132,15 +133,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genre</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -318,6 +311,25 @@
   </si>
   <si>
     <t>FOREIGN KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -835,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -857,10 +869,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -875,13 +887,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -896,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -917,13 +929,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -944,7 +956,7 @@
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1002,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1021,13 +1033,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1037,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1049,10 +1061,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1067,13 +1079,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1088,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1109,13 +1121,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1130,13 +1142,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1156,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1215,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1234,13 +1246,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1250,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1259,16 +1271,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1280,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1301,10 +1315,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1322,10 +1336,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1336,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -1345,13 +1359,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1366,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1387,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1402,7 +1416,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1410,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1431,13 +1445,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1455,11 +1469,183 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CA817-728D-4D89-9615-3FB4660ED118}">
+  <dimension ref="B1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1517,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1536,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1552,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1561,13 +1747,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -1584,13 +1770,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -1607,13 +1793,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1628,13 +1814,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1649,13 +1835,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162E8C2-CC4B-4671-956F-358E940E3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE94E57-C1F1-4B8F-B502-AA0DA4C24168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="2" activeTab="2" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="3" activeTab="4" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="companies" sheetId="7" r:id="rId1"/>
+    <sheet name="administrators" sheetId="7" r:id="rId1"/>
     <sheet name="customers" sheetId="2" r:id="rId2"/>
     <sheet name="products" sheetId="4" r:id="rId3"/>
     <sheet name="categories" sheetId="8" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,31 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業名</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業ID</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -330,6 +301,20 @@
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ユーザ名</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customer_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -789,6 +774,173 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
+  <dimension ref="B1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -836,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -847,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -861,15 +1013,15 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -882,8 +1034,8 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -903,18 +1055,18 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -924,18 +1076,18 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6">
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -944,6 +1096,27 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -951,12 +1124,438 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
-  <dimension ref="B1:J9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CA817-728D-4D89-9615-3FB4660ED118}">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
+  <dimension ref="B1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1003,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1014,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1028,18 +1627,18 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1048,44 +1647,44 @@
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1095,18 +1694,18 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6">
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1117,17 +1716,17 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1136,720 +1735,6 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
-  <dimension ref="B1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CA817-728D-4D89-9615-3FB4660ED118}">
-  <dimension ref="B1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
-  <dimension ref="B1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE94E57-C1F1-4B8F-B502-AA0DA4C24168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66A6ED-FDFC-44C7-9455-99824ED93C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" firstSheet="3" activeTab="4" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" activeTab="4" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="administrators" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -230,17 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>order_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文日</t>
-    <rPh sb="0" eb="3">
-      <t>チュウモンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>image_url</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -315,6 +304,50 @@
   </si>
   <si>
     <t>customer_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文数量</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_by</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,7 +807,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -832,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -854,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -893,13 +926,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -914,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -999,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1081,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1102,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1126,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1187,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1206,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1271,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1294,20 +1327,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1315,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1336,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1350,22 +1385,20 @@
         <v>12</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1373,20 +1406,22 @@
         <v>12</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1395,6 +1430,69 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1405,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CA817-728D-4D89-9615-3FB4660ED118}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1466,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1488,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -1506,13 +1604,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1522,18 +1620,18 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1542,6 +1640,48 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1552,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1613,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -1632,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>32</v>
@@ -1678,13 +1818,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1694,18 +1834,18 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1714,27 +1854,6 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66A6ED-FDFC-44C7-9455-99824ED93C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9571C-60B0-4E8C-AC5D-E1CDA7F1FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="10800" activeTab="4" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10515" windowHeight="10785" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="administrators" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -348,6 +348,14 @@
     <rPh sb="0" eb="3">
       <t>コウシンシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEC3974-F31E-4694-BD58-B5327A28D609}">
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -815,7 +823,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -905,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -926,13 +934,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -947,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -962,6 +970,27 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -971,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -982,7 +1011,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -1046,7 +1075,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1067,15 +1096,15 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1088,18 +1117,18 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1109,18 +1138,18 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1131,14 +1160,14 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1150,6 +1179,27 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1694,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
   <dimension ref="B1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\electronic-commerce\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9571C-60B0-4E8C-AC5D-E1CDA7F1FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85C31C-DE8D-496C-9F4E-7F699C18390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10515" windowHeight="10785" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{F930FC91-ADC4-4C9F-A38D-E747A0CC0A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="administrators" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -356,6 +356,13 @@
   </si>
   <si>
     <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意キー</t>
+    <rPh sb="0" eb="2">
+      <t>イチイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -447,13 +454,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +492,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEC3974-F31E-4694-BD58-B5327A28D609}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -826,14 +848,14 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,16 +875,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -879,15 +904,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -902,13 +928,14 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -926,10 +953,13 @@
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -944,13 +974,14 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -965,13 +996,14 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -986,11 +1018,12 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1000,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C0169-7B0C-484D-9ACE-BA7EC8E194F8}">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1014,14 +1047,14 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1041,16 +1074,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1067,15 +1103,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1090,13 +1127,14 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -1114,10 +1152,13 @@
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -1132,13 +1173,14 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1153,13 +1195,14 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1174,13 +1217,14 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1195,11 +1239,12 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1209,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D33D65-48E3-4C41-9D75-82A7A1AE6764}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1223,14 +1268,14 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1250,16 +1295,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1276,15 +1324,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1301,13 +1350,14 @@
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1322,13 +1372,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1343,13 +1394,14 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1364,15 +1416,16 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1387,15 +1440,16 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1410,13 +1464,14 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1431,13 +1486,14 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1452,15 +1508,16 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1475,13 +1532,14 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1496,13 +1554,14 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1517,13 +1576,14 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1538,11 +1598,12 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1553,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CA817-728D-4D89-9615-3FB4660ED118}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1567,14 +1628,14 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1594,16 +1655,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1620,15 +1684,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1643,13 +1708,14 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1664,13 +1730,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1685,13 +1752,14 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1706,13 +1774,14 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1727,11 +1796,33 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1742,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4A41B-C6B5-4071-83C0-D79EB22ECFFF}">
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1756,14 +1847,14 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1783,16 +1874,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1809,15 +1903,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1834,13 +1929,14 @@
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1857,13 +1953,14 @@
       <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1878,13 +1975,14 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1899,11 +1997,36 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
